--- a/CodeSystem-phenotypic-feature-assertion.xlsx
+++ b/CodeSystem-phenotypic-feature-assertion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-phenotypic-feature-assertion.xlsx
+++ b/CodeSystem-phenotypic-feature-assertion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-phenotypic-feature-assertion.xlsx
+++ b/CodeSystem-phenotypic-feature-assertion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-phenotypic-feature-assertion.xlsx
+++ b/CodeSystem-phenotypic-feature-assertion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-phenotypic-feature-assertion.xlsx
+++ b/CodeSystem-phenotypic-feature-assertion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-phenotypic-feature-assertion.xlsx
+++ b/CodeSystem-phenotypic-feature-assertion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-phenotypic-feature-assertion.xlsx
+++ b/CodeSystem-phenotypic-feature-assertion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-phenotypic-feature-assertion.xlsx
+++ b/CodeSystem-phenotypic-feature-assertion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
